--- a/Data/ALL_Rhodo_M.m_Raw_R Data.xlsx
+++ b/Data/ALL_Rhodo_M.m_Raw_R Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DarrenThesis\Darren\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E1D55-ED67-47F6-86A6-226BE9A530AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7EE15E-0EFD-4F73-B0A2-43F94D3F9015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D76BBD84-C88E-4D71-B622-41C17C6590B0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D76BBD84-C88E-4D71-B622-41C17C6590B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12840,8 +12840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B19BC76-B2DE-4EA8-9F0F-77997E8ACBD0}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15743,8 +15743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAA8B18-D479-4BE6-A248-1025FD15FEA7}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
